--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1243261.283466673</v>
+        <v>-1246122.097258965</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.713880001506</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.713880001506</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>79.5114923061041</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>13.2938355955086</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>138.8809692862927</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>194.9467958971614</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>132.3493702359519</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>104.1383913127195</v>
       </c>
       <c r="W5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.22462067904669</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>47.3501323630584</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>17.01189229901406</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>227.0321306076808</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>18.76175762489869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>11.74167907658358</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>158.1774890377071</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814951</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177532</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493722</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>44.85825538867739</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4381829241309</v>
+        <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.8339267169636</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906586</v>
+        <v>23.79630926906616</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346714</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.9001018586655</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.59571383254728</v>
+        <v>11.27966958024255</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911948</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627544</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>51.89407438975509</v>
       </c>
       <c r="U16" t="n">
-        <v>20.38427178198243</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>156.3923706291104</v>
       </c>
       <c r="T19" t="n">
-        <v>79.14040151643951</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2774686880305</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.22544352992953</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344762</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672983</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="D2" t="n">
-        <v>287.4747669672983</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672983</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012048</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012048</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012048</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012048</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.2826908791759</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946885</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946885</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>820.230080101654</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>820.230080101654</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W2" t="n">
-        <v>820.230080101654</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X2" t="n">
-        <v>820.230080101654</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.230080101654</v>
+        <v>670.3237564101303</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.1689916273217</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012048</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012048</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302305</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267543</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293593</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560891</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>892.7911048467247</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212814</v>
+        <v>892.7911048467247</v>
       </c>
       <c r="V3" t="n">
-        <v>896.2358288529226</v>
+        <v>657.638996614982</v>
       </c>
       <c r="W3" t="n">
-        <v>896.2358288529226</v>
+        <v>403.4016398867803</v>
       </c>
       <c r="X3" t="n">
-        <v>688.3843286473898</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="Y3" t="n">
-        <v>688.3843286473898</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.8909145793414</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="C4" t="n">
-        <v>204.8909145793414</v>
+        <v>315.900151480424</v>
       </c>
       <c r="D4" t="n">
-        <v>204.8909145793414</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>204.8909145793414</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012048</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075537</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165354</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>622.5994491745497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>622.5994491745497</v>
+        <v>800.1710318001382</v>
       </c>
       <c r="W4" t="n">
-        <v>425.6834937228715</v>
+        <v>800.1710318001382</v>
       </c>
       <c r="X4" t="n">
-        <v>425.6834937228715</v>
+        <v>800.1710318001382</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.8909145793414</v>
+        <v>666.4847992385706</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4601,16 +4601,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="W5" t="n">
-        <v>833.1938928750989</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="X5" t="n">
-        <v>833.1938928750989</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>683.2875691835748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>593.5160277755392</v>
+        <v>235.1709686499815</v>
       </c>
       <c r="C6" t="n">
-        <v>419.0629984944122</v>
+        <v>60.71793936885453</v>
       </c>
       <c r="D6" t="n">
-        <v>419.0629984944122</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>259.8255434889567</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>113.2909855158417</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>678.0833756466782</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>442.9312674149355</v>
       </c>
       <c r="W6" t="n">
-        <v>801.367527981072</v>
+        <v>442.9312674149355</v>
       </c>
       <c r="X6" t="n">
-        <v>593.5160277755392</v>
+        <v>442.9312674149355</v>
       </c>
       <c r="Y6" t="n">
-        <v>593.5160277755392</v>
+        <v>235.1709686499815</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.006340643471</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="C7" t="n">
-        <v>327.006340643471</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="D7" t="n">
-        <v>176.8897012311353</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="E7" t="n">
-        <v>176.8897012311353</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="F7" t="n">
-        <v>176.8897012311353</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>176.8897012311353</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>700.5939555987222</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165359</v>
+        <v>434.2162990315442</v>
       </c>
       <c r="V7" t="n">
-        <v>593.383997210649</v>
+        <v>434.2162990315442</v>
       </c>
       <c r="W7" t="n">
-        <v>327.006340643471</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="X7" t="n">
-        <v>327.006340643471</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.006340643471</v>
+        <v>204.8909145793414</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.524032908304</v>
+        <v>1014.926083127437</v>
       </c>
       <c r="C8" t="n">
-        <v>913.5615159678928</v>
+        <v>1014.926083127437</v>
       </c>
       <c r="D8" t="n">
-        <v>555.2958173611423</v>
+        <v>1014.926083127437</v>
       </c>
       <c r="E8" t="n">
-        <v>555.2958173611423</v>
+        <v>629.1378305291928</v>
       </c>
       <c r="F8" t="n">
-        <v>536.3445470329618</v>
+        <v>218.1519257395852</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970187</v>
+        <v>206.2916438440463</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970187</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181719</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229173</v>
+        <v>166.4989367229157</v>
       </c>
       <c r="K8" t="n">
-        <v>397.060171667752</v>
+        <v>397.0601716677484</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937619</v>
+        <v>719.993533093756</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721583</v>
+        <v>1110.988557721575</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999429</v>
+        <v>1512.924098999418</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830567</v>
+        <v>1879.125171830553</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271736</v>
+        <v>2157.168314271719</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257597</v>
+        <v>2317.794388257579</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.82011959086</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259796</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512955</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.052678512955</v>
+        <v>2072.223384002202</v>
       </c>
       <c r="V8" t="n">
-        <v>1655.989791169384</v>
+        <v>1741.160496658631</v>
       </c>
       <c r="W8" t="n">
-        <v>1655.989791169384</v>
+        <v>1388.391841388517</v>
       </c>
       <c r="X8" t="n">
-        <v>1282.524032908304</v>
+        <v>1014.926083127437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1282.524032908304</v>
+        <v>1014.926083127437</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>830.0773309849417</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="C9" t="n">
-        <v>655.6243017038147</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>506.6898920425634</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>347.4524370371079</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
         <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797258</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117665</v>
+        <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181719</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091978032</v>
+        <v>99.15933091977914</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412843</v>
+        <v>529.1098899837345</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456337001</v>
+        <v>801.5039302761485</v>
       </c>
       <c r="M9" t="n">
-        <v>1094.834687517157</v>
+        <v>1138.731795472812</v>
       </c>
       <c r="N9" t="n">
-        <v>1670.475167115895</v>
+        <v>1499.293723724148</v>
       </c>
       <c r="O9" t="n">
-        <v>1978.099094776784</v>
+        <v>1806.917651385035</v>
       </c>
       <c r="P9" t="n">
-        <v>2205.661351085902</v>
+        <v>2223.61997410603</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570713</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.82011959086</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="S9" t="n">
-        <v>2325.82011959086</v>
+        <v>2188.151005160695</v>
       </c>
       <c r="T9" t="n">
-        <v>2131.390933091192</v>
+        <v>1993.721818661027</v>
       </c>
       <c r="U9" t="n">
-        <v>1903.293931935441</v>
+        <v>1765.624817505276</v>
       </c>
       <c r="V9" t="n">
-        <v>1668.141823703698</v>
+        <v>1530.472709273533</v>
       </c>
       <c r="W9" t="n">
-        <v>1413.904466975496</v>
+        <v>1340.674626588012</v>
       </c>
       <c r="X9" t="n">
-        <v>1206.052966769964</v>
+        <v>1132.82312638248</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.2926680050098</v>
+        <v>925.0628276175257</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>580.702600006754</v>
+        <v>352.7130491087289</v>
       </c>
       <c r="C10" t="n">
-        <v>509.3937981556961</v>
+        <v>341.3194434721203</v>
       </c>
       <c r="D10" t="n">
-        <v>509.3937981556961</v>
+        <v>341.3194434721203</v>
       </c>
       <c r="E10" t="n">
-        <v>361.480704573303</v>
+        <v>193.4063498897272</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753926</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181719</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181719</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181719</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909619</v>
+        <v>65.89540801909533</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736032</v>
+        <v>227.5779039736015</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632638</v>
+        <v>490.0022680632611</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794082</v>
+        <v>777.0810884794043</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620623</v>
+        <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.63063925712</v>
+        <v>1310.630639257114</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325123</v>
+        <v>1499.198894325116</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718237</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718237</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020061</v>
+        <v>1348.158269020053</v>
       </c>
       <c r="T10" t="n">
-        <v>1124.804258249601</v>
+        <v>1124.804258249594</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.804258249601</v>
+        <v>1124.804258249594</v>
       </c>
       <c r="V10" t="n">
-        <v>870.1197700437145</v>
+        <v>870.1197700437068</v>
       </c>
       <c r="W10" t="n">
-        <v>580.702600006754</v>
+        <v>580.7026000067463</v>
       </c>
       <c r="X10" t="n">
-        <v>580.702600006754</v>
+        <v>352.7130491087289</v>
       </c>
       <c r="Y10" t="n">
-        <v>580.702600006754</v>
+        <v>352.7130491087289</v>
       </c>
     </row>
     <row r="11">
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258109</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1922.614765620014</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T19" t="n">
-        <v>2184.16844972361</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U19" t="n">
-        <v>1895.093223067808</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V19" t="n">
-        <v>1640.408734861921</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.99156482496</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6078,7 +6078,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>803.2707707770319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>653.1541313646961</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>505.241037782303</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,13 +6212,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6239,28 +6239,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6269,7 +6269,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7425191625314</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7260,7 +7260,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
         <v>1373.553594266881</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127193</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658819</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775173</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>220.1247239260522</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>217.2510619670704</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>191.0505721332123</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>27.38164655864783</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695015</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>157.32639081249</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>171.6366755721784</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>268.1029097712761</v>
       </c>
     </row>
     <row r="3">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>165.5113759375332</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8002026072617</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>24.6339153725342</v>
       </c>
       <c r="T19" t="n">
-        <v>138.2650488108488</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>28.15649395853863</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.1956044930017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>5.728115292809974</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1271342.024563654</v>
+        <v>1271342.024563653</v>
       </c>
     </row>
     <row r="5">
@@ -26320,7 +26320,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26344,7 +26344,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194635</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228513026</v>
+        <v>331437.5228512976</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424074</v>
+        <v>563905.7843424119</v>
       </c>
       <c r="F3" t="n">
-        <v>3.378924726223039e-11</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201319</v>
+        <v>99845.14336201188</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569547</v>
+        <v>147342.6769569559</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.580403489446075e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>157189.005127798</v>
+        <v>157189.0051277993</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488701</v>
       </c>
       <c r="O4" t="n">
+        <v>19157.891514887</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.89151488701</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543617</v>
+        <v>88290.79546543579</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-759826.8106724519</v>
+        <v>-760186.8936881695</v>
       </c>
       <c r="C6" t="n">
         <v>-129540.7706038222</v>
       </c>
       <c r="D6" t="n">
-        <v>-392182.9252250731</v>
+        <v>-392182.9252250691</v>
       </c>
       <c r="E6" t="n">
-        <v>-494587.3614878567</v>
+        <v>-494622.099413297</v>
       </c>
       <c r="F6" t="n">
-        <v>69318.42285455062</v>
+        <v>69283.6849291149</v>
       </c>
       <c r="G6" t="n">
-        <v>69318.42285455065</v>
+        <v>69283.68492911523</v>
       </c>
       <c r="H6" t="n">
-        <v>69318.4228545509</v>
+        <v>69283.68492911509</v>
       </c>
       <c r="I6" t="n">
-        <v>69318.42285455078</v>
+        <v>69283.68492911504</v>
       </c>
       <c r="J6" t="n">
-        <v>319.268435436592</v>
+        <v>284.5305100007823</v>
       </c>
       <c r="K6" t="n">
-        <v>69318.42285455072</v>
+        <v>69283.68492911497</v>
       </c>
       <c r="L6" t="n">
-        <v>-37432.75251135201</v>
+        <v>-37432.75251135066</v>
       </c>
       <c r="M6" t="n">
-        <v>-84930.28610629351</v>
+        <v>-84930.28610629472</v>
       </c>
       <c r="N6" t="n">
         <v>62412.39085066118</v>
       </c>
       <c r="O6" t="n">
+        <v>62412.39085066115</v>
+      </c>
+      <c r="P6" t="n">
         <v>62412.39085066118</v>
-      </c>
-      <c r="P6" t="n">
-        <v>62412.39085066126</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.223655907778799e-14</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896836</v>
+        <v>885.8132865896796</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977149</v>
+        <v>581.4550298977101</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26917,25 +26917,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.725504361807593e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202053</v>
+        <v>271.7582728202012</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519904</v>
+        <v>482.1622137519944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962088</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019337</v>
+        <v>591.2532582019385</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962088</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019337</v>
+        <v>591.2532582019385</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962088</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019337</v>
+        <v>591.2532582019385</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>156.8672418167779</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>1.162462926347985</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>181.5471519893682</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>93.91961786313257</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>91.57620243942961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>86.23528311614294</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>223.6138671574154</v>
       </c>
       <c r="W5" t="n">
-        <v>129.7959578577966</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.2204448855921</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>88.67258722336504</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>135.3702670368427</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>59.49086772891025</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>388.1142881168128</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819517</v>
+        <v>144.8276233442447</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.1881841181501</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>100.2109570047065</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>63.79488130225408</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>96.65110726608056</v>
+        <v>155.9671515183853</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0251168634279</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413784</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169634</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.061875451984413e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551489</v>
+        <v>3.561058438551473</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381545</v>
+        <v>36.46968973381528</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522564</v>
+        <v>137.2877054522558</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490097</v>
+        <v>302.2403836490084</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528943</v>
+        <v>452.9799873528923</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417146</v>
+        <v>561.9617295417121</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483046</v>
+        <v>625.2907025483019</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368391</v>
+        <v>635.4085598368363</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884926</v>
+        <v>599.99828498849</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867527</v>
+        <v>512.0846547867504</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561274</v>
+        <v>384.5542494561257</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406602</v>
+        <v>223.6923371406592</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849214</v>
+        <v>81.14761916849177</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475915</v>
+        <v>15.58853331475908</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841191</v>
+        <v>0.2848846750841178</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079697</v>
+        <v>1.905334239079688</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953286</v>
+        <v>18.40151751953278</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234922</v>
+        <v>65.60032358234892</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474375</v>
+        <v>180.0123019474367</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657772</v>
+        <v>307.6696959657758</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247386</v>
+        <v>413.6998750247367</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913775</v>
+        <v>482.7682411913753</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139778</v>
+        <v>495.5456800139756</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059487</v>
+        <v>453.3274845059467</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730344</v>
+        <v>363.8352723730328</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726996</v>
+        <v>243.2142442726985</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053167</v>
+        <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799346</v>
+        <v>35.39074781799331</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150179</v>
+        <v>7.679834060150144</v>
       </c>
       <c r="U9" t="n">
-        <v>0.125350936781559</v>
+        <v>0.1253509367815585</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719101</v>
+        <v>1.597368221719094</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401166</v>
+        <v>14.20205564401159</v>
       </c>
       <c r="I10" t="n">
-        <v>48.0372188858799</v>
+        <v>48.03721888587968</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755405</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051828</v>
+        <v>185.585144305182</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817654</v>
+        <v>237.4850899817643</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191133</v>
+        <v>250.3947295191122</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108878</v>
+        <v>244.4409025108866</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753509</v>
+        <v>225.7807373753499</v>
       </c>
       <c r="P10" t="n">
-        <v>193.194425652281</v>
+        <v>193.1944256522802</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750422</v>
+        <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020612</v>
+        <v>71.8234838602058</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577742</v>
+        <v>27.83777164577729</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527067</v>
+        <v>6.825118765527037</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0871291757301329</v>
+        <v>0.08712917573013251</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572282</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958071</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223235</v>
+        <v>121.1944791223221</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079138</v>
+        <v>232.8901363079117</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717274</v>
+        <v>326.1953145717249</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210319</v>
+        <v>394.9444693210291</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402482</v>
+        <v>405.9954962402454</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668059</v>
+        <v>369.9000735668033</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314832</v>
+        <v>280.8516590314809</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816779</v>
+        <v>162.2485595816762</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326528062</v>
+        <v>8.106799326527039</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077083</v>
+        <v>53.17467528077003</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914182</v>
+        <v>434.2934940039954</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448644</v>
+        <v>275.1454952448626</v>
       </c>
       <c r="M9" t="n">
-        <v>560.7589311954114</v>
+        <v>340.634207269357</v>
       </c>
       <c r="N9" t="n">
-        <v>581.4550298977149</v>
+        <v>364.2039679306423</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615043</v>
+        <v>310.7312400615023</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587042</v>
+        <v>420.9114370919148</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866781</v>
+        <v>103.2324701866769</v>
       </c>
       <c r="R9" t="n">
-        <v>18.14002325267353</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886768</v>
+        <v>19.57475315886718</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524793</v>
+        <v>163.3156524792991</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420815</v>
+        <v>265.0751152420804</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809539</v>
+        <v>289.9786064809527</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901163</v>
+        <v>288.5730748901152</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893906</v>
+        <v>250.3658652893895</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171745</v>
+        <v>190.4729849171737</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334783</v>
+        <v>47.59576302334723</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191336</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
